--- a/NTC_node_model/Output visualisation/Visualisation.xlsx
+++ b/NTC_node_model/Output visualisation/Visualisation.xlsx
@@ -8,25 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MitarbeiterOrdner\Bernecker\GitHub Desktop Project Foulder\Quant-Reliability-Energy-Systems\NTC_node_model\Output visualisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E0CD0F-A840-49D4-8C59-BB4BAE769099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F4179-4688-48AD-B35E-7D4929C7B965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="38">
   <si>
     <t>DE</t>
   </si>
@@ -125,6 +134,21 @@
   </si>
   <si>
     <t>EENS</t>
+  </si>
+  <si>
+    <t>medium hydro</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>SEE</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>standart</t>
   </si>
 </sst>
 </file>
@@ -269,799 +293,6 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Comparison average price</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13714334818245524"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.84101410656023778"/>
-          <c:h val="0.54161380869058029"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle2!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average Price 1989</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Tabelle2!$A$4:$A$19</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Tabelle2!$A$5,Tabelle2!$A$7,Tabelle2!$A$9:$A$12,Tabelle2!$A$15:$A$19)</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>DK</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PL</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AT</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CH</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FR</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BE</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>IT</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ES</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>BALT</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Tabelle2!$B$4:$B$19</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Tabelle2!$B$5,Tabelle2!$B$7,Tabelle2!$B$9:$B$12,Tabelle2!$B$15:$B$19)</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>52.502203812731516</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45.902375566846864</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55.36267228695931</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55.461866290655571</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.612421047349837</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.474752626694894</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43.385616314704265</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43.533429821157021</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39.042324197593388</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60.330576568904675</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>49.489966364483067</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3EEC-4B4B-8633-95F0B34BDD8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle2!$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average Price 1990 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Tabelle2!$A$4:$A$19</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Tabelle2!$A$5,Tabelle2!$A$7,Tabelle2!$A$9:$A$12,Tabelle2!$A$15:$A$19)</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>DK</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PL</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AT</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CH</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FR</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BE</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>IT</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ES</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>BALT</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Tabelle2!$H$4:$H$19</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Tabelle2!$H$5,Tabelle2!$H$7,Tabelle2!$H$9:$H$12,Tabelle2!$H$15:$H$19)</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>51.001779046395797</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45.89848705255352</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53.678318750731712</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.77656520112815</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.669118958326267</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34.683602835895648</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43.29352831161102</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43.533429821157043</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39.363084351442822</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60.307469057039285</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47.950684246436495</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3EEC-4B4B-8633-95F0B34BDD8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle2!$N$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average Price 2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Tabelle2!$A$4:$A$19</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Tabelle2!$A$5,Tabelle2!$A$7,Tabelle2!$A$9:$A$12,Tabelle2!$A$15:$A$19)</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>DK</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PL</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AT</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CH</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FR</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>BE</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>IT</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ES</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>BALT</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Tabelle2!$N$4:$N$19</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Tabelle2!$N$5,Tabelle2!$N$7,Tabelle2!$N$9:$N$12,Tabelle2!$N$15:$N$19)</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>53.399074609318291</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45.909639003785223</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55.715159652223178</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55.892441580633921</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.918388251931608</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.812517590915824</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43.440672552088017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43.53342982115705</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39.038626309581858</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>62.654727308815232</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>49.784847328687356</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3EEC-4B4B-8633-95F0B34BDD8B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="23398335"/>
-        <c:axId val="23388767"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="23398335"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="23388767"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="23388767"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE" sz="1400"/>
-                  <a:t>Price in EUR</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="23398335"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.64674641695793222"/>
-          <c:y val="6.8668877246428339E-3"/>
-          <c:w val="0.18369677102790799"/>
-          <c:h val="0.34668736710655101"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
@@ -1142,108 +373,8 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle2!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="58000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle2!$A$4:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>DE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DK</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SE</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>PL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CZ</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AT</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CH</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>FR</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>BE</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>NL</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>NO</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>IT</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>ES</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>BALT</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>SI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle2!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-E670-40E7-848E-82B3D73E2C54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle2!$C$3</c:f>
@@ -1300,7 +431,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>NL</c:v>
+                  <c:v>NE</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>NO</c:v>
@@ -1330,16 +461,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="2">
-                  <c:v>663</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2482</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8760</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8760</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,7 +477,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle2!$I$3</c:f>
@@ -1409,7 +534,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>NL</c:v>
+                  <c:v>NE</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>NO</c:v>
@@ -1439,16 +564,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="2">
-                  <c:v>615</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2393</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8760</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8760</c:v>
+                  <c:v>1385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1461,7 +580,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle2!$O$3</c:f>
@@ -1518,7 +637,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>NL</c:v>
+                  <c:v>NE</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>NO</c:v>
@@ -1548,16 +667,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="2">
-                  <c:v>824</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2505</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8760</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8760</c:v>
+                  <c:v>1482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,6 +678,45 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E670-40E7-848E-82B3D73E2C54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>special</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$V$4:$V$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1EE0-468D-8928-7183B6CD6A1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1708,7 +860,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1798,8 +950,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.86017523779602956"/>
           <c:y val="6.3575386410032075E-2"/>
-          <c:w val="0.1398247622039703"/>
-          <c:h val="0.3183191163604549"/>
+          <c:w val="0.12665710106225486"/>
+          <c:h val="0.32337171093288036"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1875,7 +1027,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2020,7 +1172,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>NL</c:v>
+                  <c:v>NE</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>NO</c:v>
@@ -2050,16 +1202,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="2">
-                  <c:v>948761.65845492785</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3128574.4426054815</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>114790954.71452504</c:v>
+                  <c:v>979.10747436430574</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80933258.849251404</c:v>
+                  <c:v>4093824.2911440181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,7 +1275,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>NL</c:v>
+                  <c:v>NE</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>NO</c:v>
@@ -2159,16 +1305,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="2">
-                  <c:v>830457.8482891696</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3093950.5172072691</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>114781615.84111871</c:v>
+                  <c:v>4636.1841840018387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80209464.363618523</c:v>
+                  <c:v>4094794.7733320245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,7 +1378,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>NL</c:v>
+                  <c:v>NE</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>NO</c:v>
@@ -2268,16 +1408,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="2">
-                  <c:v>1390947.1734274931</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3205209.9127936279</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>114837649.08155599</c:v>
+                  <c:v>20666.15236436978</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84151811.718111649</c:v>
+                  <c:v>5214242.7093316074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2285,6 +1419,45 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-58B7-4525-9993-D6C4C9FD1C20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>special</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$W$4:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="2">
+                  <c:v>17715.799623773979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10685952.895279545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F254-443A-BE11-A48FE7A67E8A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2518,7 +1691,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.87090089388208991"/>
           <c:y val="4.9686497521143187E-2"/>
-          <c:w val="0.11002686270125649"/>
+          <c:w val="9.7872748017410166E-2"/>
           <c:h val="0.37726710087165033"/>
         </c:manualLayout>
       </c:layout>
@@ -2595,7 +1768,939 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Comparison average price</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13714334818245524"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.84101410656023778"/>
+          <c:h val="0.54161380869058029"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Price 1989</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle2!$A$4:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>DE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AT</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CH</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NO</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ES</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>BALT</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$B$4:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>51.126911699891593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.442991574525273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.866549135313349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.803285590586789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.10181984460138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.518454588249931</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.489948088709262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.573290091731741</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.513314293998619</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.744473191759141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>506.69270236218017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.411125249960975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.533429821157029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.346686962247269</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.983898527297903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.22984933376874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EEC-4B4B-8633-95F0B34BDD8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Price 1990 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle2!$A$4:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>DE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AT</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CH</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NO</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ES</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>BALT</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$H$4:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>49.810170145358462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.823906655210834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.353749566343922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.72644433469511</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.942573770722419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.20934948238704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.64820250431179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.40418907836856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.482723982879349</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.613840811980417</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>511.57125531400703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.335183455531734</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.533429821157021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.890283925377609</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.130879182943445</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.701886336914356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EEC-4B4B-8633-95F0B34BDD8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle2!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Price 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle2!$A$4:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>DE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AT</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CH</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NO</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IT</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ES</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>BALT</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$N$4:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>51.394975211545692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.455041284244437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.41868309228674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.836041657807321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.459200318672373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.810997491745596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.901537910133207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.096988446206785</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.52213315464433</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.826944376493394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>579.6286016043706</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.465659578538435</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.533429821157029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.43427497390131</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.727479796114189</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.346527312625021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3EEC-4B4B-8633-95F0B34BDD8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>special</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle2!$U$4:$U$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>51.12027569504987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.929364267815359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.96803492219631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.803429426203138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.101750596676794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.508531206111407</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.488112398993451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.573290091731741</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.513314293998619</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.699714581230964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>748.0520157976249</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.411125249960975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.533429821157029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.346686962247269</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.945902772351737</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.208835903700191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AEAA-42FD-8FF8-B867FBD227AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="23398335"/>
+        <c:axId val="23388767"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="23398335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23388767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="23388767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1400"/>
+                  <a:t>Price in EUR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23398335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81910582090621042"/>
+          <c:y val="3.3534933928821391E-3"/>
+          <c:w val="0.18089425394976863"/>
+          <c:h val="0.32902967270663758"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2635,18 +2740,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
-  <a:schemeClr val="accent1"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
-  <a:schemeClr val="accent1"/>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4158,42 +4251,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>109536</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Diagramm 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52841B4-4126-48BB-A737-2BFA6CFF7DF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -4226,7 +4283,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4257,6 +4314,42 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52841B4-4126-48BB-A737-2BFA6CFF7DF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4539,7 +4632,7 @@
   <dimension ref="A20:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4608,10 +4701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CA534F-8F12-4C79-9D47-13C42EC8A621}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,7 +4720,7 @@
     <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
@@ -4647,7 +4740,7 @@
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -4667,7 +4760,10 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
@@ -4676,6 +4772,9 @@
       </c>
       <c r="D3" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="6" t="s">
@@ -4687,6 +4786,9 @@
       <c r="J3" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="6" t="s">
         <v>21</v>
@@ -4697,13 +4799,28 @@
       <c r="P3" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="Q3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1989</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
-        <v>55.181582570657824</v>
+        <v>51.126911699891593</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -4711,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>53.358839520747495</v>
+        <v>49.810170145358462</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -4719,17 +4836,25 @@
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <v>55.604901748931113</v>
+        <v>51.394975211545692</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
+      <c r="T4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>51.12027569504987</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>52.502203812731516</v>
+        <v>38.442991574525273</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4737,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>51.001779046395797</v>
+        <v>37.823906655210834</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -4745,55 +4870,75 @@
         <v>1</v>
       </c>
       <c r="N5" s="4">
-        <v>53.399074609318291</v>
+        <v>39.455041284244437</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
+      <c r="T5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="5">
+        <v>34.929364267815359</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>1418.6365012750175</v>
+        <v>38.866549135313349</v>
       </c>
       <c r="C6" s="4">
-        <v>663</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4">
-        <v>948761.65845492785</v>
+        <v>979.10747436430574</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="4">
-        <v>1325.6039816348436</v>
+        <v>45.353749566343922</v>
       </c>
       <c r="I6" s="5">
-        <v>615</v>
+        <v>11</v>
       </c>
       <c r="J6" s="5">
-        <v>830457.8482891696</v>
+        <v>4636.1841840018387</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="N6" s="4">
-        <v>1709.4831785644442</v>
+        <v>100.41868309228674</v>
       </c>
       <c r="O6" s="4">
-        <v>824</v>
+        <v>37</v>
       </c>
       <c r="P6" s="4">
-        <v>1390947.1734274931</v>
+        <v>20666.15236436978</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="5">
+        <v>92.96803492219631</v>
+      </c>
+      <c r="V6" s="5">
+        <v>34</v>
+      </c>
+      <c r="W6" s="5">
+        <v>17715.799623773979</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>45.902375566846864</v>
+        <v>45.803285590586789</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4801,7 +4946,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="4">
-        <v>45.89848705255352</v>
+        <v>45.72644433469511</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -4809,55 +4954,59 @@
         <v>3</v>
       </c>
       <c r="N7" s="4">
-        <v>45.909639003785223</v>
+        <v>45.836041657807321</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
+      <c r="T7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="5">
+        <v>45.803429426203138</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>1306.1509878301474</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2482</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3128574.4426054815</v>
-      </c>
+        <v>51.10181984460138</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="4">
-        <v>1261.0912500548523</v>
-      </c>
-      <c r="I8" s="5">
-        <v>2393</v>
-      </c>
-      <c r="J8" s="5">
-        <v>3093950.5172072691</v>
-      </c>
+        <v>49.942573770722419</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
       <c r="M8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="N8" s="4">
-        <v>1269.4579664948569</v>
-      </c>
-      <c r="O8" s="4">
-        <v>2505</v>
-      </c>
-      <c r="P8" s="4">
-        <v>3205209.9127936279</v>
-      </c>
+        <v>51.459200318672373</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="T8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="5">
+        <v>51.101750596676794</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>55.36267228695931</v>
+        <v>48.518454588249931</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -4865,7 +5014,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="4">
-        <v>53.678318750731712</v>
+        <v>47.20934948238704</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -4873,17 +5022,25 @@
         <v>5</v>
       </c>
       <c r="N9" s="4">
-        <v>55.715159652223178</v>
+        <v>48.810997491745596</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
+      <c r="T9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="5">
+        <v>48.508531206111407</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4">
-        <v>55.461866290655571</v>
+        <v>44.489948088709262</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4891,7 +5048,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="4">
-        <v>53.77656520112815</v>
+        <v>43.64820250431179</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -4899,17 +5056,25 @@
         <v>6</v>
       </c>
       <c r="N10" s="4">
-        <v>55.892441580633921</v>
+        <v>44.901537910133207</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
+      <c r="T10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="5">
+        <v>44.488112398993451</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>14.612421047349837</v>
+        <v>10.573290091731741</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4917,7 +5082,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="4">
-        <v>14.669118958326267</v>
+        <v>10.40418907836856</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -4925,17 +5090,25 @@
         <v>7</v>
       </c>
       <c r="N11" s="4">
-        <v>14.918388251931608</v>
+        <v>11.096988446206785</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
+      <c r="T11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="5">
+        <v>10.573290091731741</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4">
-        <v>35.474752626694894</v>
+        <v>42.513314293998619</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -4943,7 +5116,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="4">
-        <v>34.683602835895648</v>
+        <v>42.482723982879349</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -4951,93 +5124,109 @@
         <v>8</v>
       </c>
       <c r="N12" s="4">
-        <v>35.812517590915824</v>
+        <v>42.52213315464433</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
+      <c r="T12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="5">
+        <v>42.513314293998619</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B13" s="4">
-        <v>3000.0000000001464</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8760</v>
-      </c>
-      <c r="D13" s="4">
-        <v>114790954.71452504</v>
-      </c>
+        <v>43.744473191759141</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="G13" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H13" s="4">
-        <v>3000.0000000001464</v>
-      </c>
-      <c r="I13" s="5">
-        <v>8760</v>
-      </c>
-      <c r="J13" s="5">
-        <v>114781615.84111871</v>
-      </c>
+        <v>43.613840811980417</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
       <c r="M13" s="6" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="N13" s="4">
-        <v>3000.0000000001464</v>
-      </c>
-      <c r="O13" s="4">
-        <v>8760</v>
-      </c>
-      <c r="P13" s="4">
-        <v>114837649.08155599</v>
-      </c>
+        <v>43.826944376493394</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="T13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="5">
+        <v>43.699714581230964</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="4">
-        <v>3000.0000000001464</v>
+        <v>506.69270236218017</v>
       </c>
       <c r="C14" s="4">
-        <v>8760</v>
+        <v>1360</v>
       </c>
       <c r="D14" s="4">
-        <v>80933258.849251404</v>
+        <v>4093824.2911440181</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="4">
-        <v>3000.0000000001464</v>
+        <v>511.57125531400703</v>
       </c>
       <c r="I14" s="5">
-        <v>8760</v>
+        <v>1385</v>
       </c>
       <c r="J14" s="5">
-        <v>80209464.363618523</v>
+        <v>4094794.7733320245</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="N14" s="4">
-        <v>3000.0000000001464</v>
+        <v>579.6286016043706</v>
       </c>
       <c r="O14" s="4">
-        <v>8760</v>
+        <v>1482</v>
       </c>
       <c r="P14" s="4">
-        <v>84151811.718111649</v>
+        <v>5214242.7093316074</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="5">
+        <v>748.0520157976249</v>
+      </c>
+      <c r="V14" s="5">
+        <v>2160</v>
+      </c>
+      <c r="W14" s="5">
+        <v>10685952.895279545</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4">
-        <v>43.385616314704265</v>
+        <v>43.411125249960975</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5045,7 +5234,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="4">
-        <v>43.29352831161102</v>
+        <v>43.335183455531734</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5053,17 +5242,25 @@
         <v>11</v>
       </c>
       <c r="N15" s="4">
-        <v>43.440672552088017</v>
+        <v>43.465659578538435</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
+      <c r="T15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="5">
+        <v>43.411125249960975</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="4">
-        <v>43.533429821157021</v>
+        <v>43.533429821157029</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -5071,7 +5268,7 @@
         <v>12</v>
       </c>
       <c r="H16" s="4">
-        <v>43.533429821157043</v>
+        <v>43.533429821157021</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5079,17 +5276,25 @@
         <v>12</v>
       </c>
       <c r="N16" s="4">
-        <v>43.53342982115705</v>
+        <v>43.533429821157029</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
+      <c r="T16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="5">
+        <v>43.533429821157029</v>
+      </c>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="4">
-        <v>39.042324197593388</v>
+        <v>37.346686962247269</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -5097,7 +5302,7 @@
         <v>13</v>
       </c>
       <c r="H17" s="4">
-        <v>39.363084351442822</v>
+        <v>37.890283925377609</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -5105,17 +5310,25 @@
         <v>13</v>
       </c>
       <c r="N17" s="4">
-        <v>39.038626309581858</v>
+        <v>37.43427497390131</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
+      <c r="T17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U17" s="5">
+        <v>37.346686962247269</v>
+      </c>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="4">
-        <v>60.330576568904675</v>
+        <v>42.983898527297903</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -5123,7 +5336,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="4">
-        <v>60.307469057039285</v>
+        <v>42.130879182943445</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -5131,17 +5344,25 @@
         <v>14</v>
       </c>
       <c r="N18" s="4">
-        <v>62.654727308815232</v>
+        <v>44.727479796114189</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
+      <c r="T18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" s="5">
+        <v>42.945902772351737</v>
+      </c>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="4">
-        <v>49.489966364483067</v>
+        <v>43.22984933376874</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -5149,7 +5370,7 @@
         <v>15</v>
       </c>
       <c r="H19" s="4">
-        <v>47.950684246436495</v>
+        <v>42.701886336914356</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -5157,12 +5378,76 @@
         <v>15</v>
       </c>
       <c r="N19" s="4">
-        <v>49.784847328687356</v>
+        <v>43.346527312625021</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
+      <c r="T19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U19" s="5">
+        <v>43.208835903700191</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>43.22984933376874</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20">
+        <v>42.701886336914356</v>
+      </c>
+      <c r="M20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20">
+        <v>43.346527312625021</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" s="5">
+        <v>43.208835903700191</v>
+      </c>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>38.866549135313349</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21">
+        <v>45.353749566343922</v>
+      </c>
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21">
+        <v>100.41868309228674</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" s="5">
+        <v>92.96803492219631</v>
+      </c>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
@@ -5182,7 +5467,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M23" s="5"/>
       <c r="N23" s="6" t="s">
         <v>30</v>
@@ -5194,7 +5479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M24" s="6" t="s">
         <v>0</v>
       </c>
@@ -5208,7 +5493,7 @@
         <v>15832767.602511281</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M25" s="6" t="s">
         <v>1</v>
       </c>
@@ -5222,7 +5507,7 @@
         <v>263502.74384718697</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M26" s="6" t="s">
         <v>2</v>
       </c>
@@ -5236,7 +5521,7 @@
         <v>18245175.458450809</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M27" s="6" t="s">
         <v>3</v>
       </c>
@@ -5246,7 +5531,7 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M28" s="6" t="s">
         <v>4</v>
       </c>
@@ -5260,7 +5545,7 @@
         <v>26470731.037773233</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M29" s="6" t="s">
         <v>5</v>
       </c>
@@ -5274,7 +5559,7 @@
         <v>17081129.415295459</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M30" s="6" t="s">
         <v>6</v>
       </c>
@@ -5288,7 +5573,7 @@
         <v>13459698.69016112</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M31" s="6" t="s">
         <v>7</v>
       </c>
@@ -5302,7 +5587,7 @@
         <v>525880.3937732653</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M32" s="6" t="s">
         <v>8</v>
       </c>
